--- a/TBWA_FR/SNCF/SNCF_Intercites_Phase2/300x600/scenario.xlsx
+++ b/TBWA_FR/SNCF/SNCF_Intercites_Phase2/300x600/scenario.xlsx
@@ -15,24 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>scenerio</t>
   </si>
   <si>
-    <t>f1_img</t>
-  </si>
-  <si>
-    <t>f2_city_name</t>
-  </si>
-  <si>
-    <t>f3_city_name</t>
-  </si>
-  <si>
-    <t>f3_number</t>
-  </si>
-  <si>
-    <t>f3_currency</t>
+    <t>img</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>currency</t>
   </si>
   <si>
     <t>scenerio1</t>
@@ -156,18 +153,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.719387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.5969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -186,68 +182,56 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>155</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="D4" s="0" t="n">
         <v>1555</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>9</v>
+      <c r="E4" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
